--- a/truthtable.xlsx
+++ b/truthtable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Digital Electronics\EX 06\Exp-7-Synchornous-counters-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832F4108-E1C4-4D38-8444-4BFC98FFC007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402429AB-0E9E-495E-B29E-1713B05B6667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>A</t>
   </si>
@@ -47,7 +47,10 @@
     <t>D</t>
   </si>
   <si>
-    <t>COUNT NUMBER</t>
+    <t>UP COUNTER VALUE</t>
+  </si>
+  <si>
+    <t>DOWN COUNTER VALUE</t>
   </si>
 </sst>
 </file>
@@ -398,14 +401,15 @@
   <dimension ref="C3:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="6" width="18.77734375" customWidth="1"/>
     <col min="7" max="7" width="28.44140625" customWidth="1"/>
-    <col min="8" max="9" width="20.77734375" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
+    <col min="9" max="9" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -717,7 +721,7 @@
         <v>3</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
